--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354185F7-C084-4838-8A97-0ADEB87729F1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B9B8E-C74E-4764-A543-DD8AAE952CE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Клиент</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Настя</t>
+  </si>
+  <si>
+    <t>А Б</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,19 +83,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,18 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -404,7 +398,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,14 +445,14 @@
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>40</v>
       </c>
     </row>
@@ -469,22 +463,32 @@
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B9B8E-C74E-4764-A543-DD8AAE952CE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F346E-B78D-4E97-8AB5-990823332787}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Заочка" sheetId="1" r:id="rId1"/>
+    <sheet name="Дневные" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Клиент</t>
   </si>
@@ -59,6 +60,21 @@
   </si>
   <si>
     <t>А Б</t>
+  </si>
+  <si>
+    <t>@purpupule</t>
+  </si>
+  <si>
+    <t>в процессе</t>
+  </si>
+  <si>
+    <t>готово)</t>
+  </si>
+  <si>
+    <t>бронь</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -74,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +109,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -102,19 +130,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,7 +617,7 @@
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,93 +642,120 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="25">
+        <v>11</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="12"/>
+      <c r="N2" s="3"/>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+      <c r="C3" s="14">
+        <v>40</v>
+      </c>
+      <c r="D3" s="16">
+        <v>160</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="12"/>
+      <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3">
+      <c r="B4" s="25">
+        <v>6</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="12"/>
+      <c r="N4" s="4"/>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="25">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -526,7 +764,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -535,7 +773,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -544,7 +782,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -553,7 +791,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -562,7 +800,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -571,7 +809,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -580,7 +818,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -589,7 +827,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -611,7 +849,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -644,6 +882,100 @@
       <c r="I21" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="25">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="5"/>
+      <c r="N2" s="3"/>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="26">
+        <v>30</v>
+      </c>
+      <c r="D3" s="26">
+        <v>30</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="N3" s="2"/>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" s="4"/>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F346E-B78D-4E97-8AB5-990823332787}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DC500A-C544-471F-AA79-4226023F76E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
   <si>
     <t>Клиент</t>
   </si>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,12 +296,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +320,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -648,19 +651,19 @@
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="12"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
@@ -674,14 +677,14 @@
       <c r="C3" s="14">
         <v>40</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="28">
         <v>160</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="12"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -689,19 +692,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>6</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="12"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -724,19 +727,19 @@
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="23">
         <v>19</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -849,7 +852,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -894,7 +897,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,13 +932,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="23">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -953,17 +956,17 @@
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>30</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <v>30</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>15</v>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DC500A-C544-471F-AA79-4226023F76E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D508320-E9B7-43D4-8D68-A4FF8DC75C4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Клиент</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Вар</t>
   </si>
   <si>
-    <t>Настя</t>
-  </si>
-  <si>
     <t>А Б</t>
   </si>
   <si>
@@ -75,6 +72,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Анастасия пилькова</t>
+  </si>
+  <si>
+    <t>Настя мехед</t>
+  </si>
+  <si>
+    <t>этот хуй под вопросом</t>
+  </si>
+  <si>
+    <t>@kkamizu</t>
   </si>
 </sst>
 </file>
@@ -122,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +276,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,9 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -291,7 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -320,14 +384,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,136 +753,159 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>11</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="10"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>40</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="36">
         <v>160</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="12"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="10"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21">
         <v>6</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="10"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C7" s="12">
+        <v>40</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="23">
-        <v>19</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="27">
+        <v>28</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14">
-        <v>40</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -852,7 +983,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -894,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,53 +1063,95 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="23">
+      <c r="A2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="21">
         <v>10</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="33">
         <v>30</v>
       </c>
-      <c r="D3" s="24">
-        <v>30</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="D3" s="22">
+        <v>25</v>
+      </c>
+      <c r="E3" s="45">
+        <v>55</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="21">
+        <v>18</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="7"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="42">
+        <v>30</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D508320-E9B7-43D4-8D68-A4FF8DC75C4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F437B-8837-493E-B03F-1F69F43D709C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -286,19 +286,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -333,13 +320,44 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -348,9 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -381,7 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -394,48 +408,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +731,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,159 +764,159 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="34">
         <v>160</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="10"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="10"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="10"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>28</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -983,7 +994,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1028,7 +1039,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,19 +1074,19 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
@@ -1083,74 +1094,76 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="29">
         <v>30</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>25</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="36">
         <v>55</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="21">
+        <v>30</v>
+      </c>
+      <c r="I3" s="22"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>18</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="7"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="42">
-        <v>30</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="24"/>
+      <c r="E5" s="36">
+        <v>80</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F437B-8837-493E-B03F-1F69F43D709C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288EE5EC-08BF-4AEB-ACF7-638489946824}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,7 +417,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,24 +439,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +777,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
       <c r="J2" s="9"/>
@@ -796,14 +793,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="38">
         <v>160</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -887,7 +884,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -902,8 +899,8 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -915,8 +912,8 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1038,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1082,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="33"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
@@ -1104,11 +1101,11 @@
       <c r="D3" s="21">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="40">
         <v>55</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="21">
         <v>30</v>
       </c>
@@ -1134,7 +1131,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1152,12 +1149,12 @@
       <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="40">
         <v>80</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="22"/>
     </row>
   </sheetData>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F437B-8837-493E-B03F-1F69F43D709C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F958D3-C39C-4A7C-81E4-59C741165F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -420,6 +420,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,24 +442,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +780,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
       <c r="J2" s="9"/>
@@ -796,14 +796,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="39">
         <v>160</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -887,7 +887,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -902,8 +902,8 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -915,8 +915,8 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,11 +1104,11 @@
       <c r="D3" s="21">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="41">
         <v>55</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="21">
         <v>30</v>
       </c>
@@ -1152,12 +1152,12 @@
       <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="41">
         <v>80</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="22"/>
     </row>
   </sheetData>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F958D3-C39C-4A7C-81E4-59C741165F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDE494-F845-4068-9B9F-90F3367BC374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,9 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -731,7 +728,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,14 +793,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>160</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -887,7 +884,7 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="34"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -902,8 +899,8 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -915,8 +912,8 @@
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1039,7 +1036,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,7 +1082,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="33"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
@@ -1104,11 +1101,11 @@
       <c r="D3" s="21">
         <v>25</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>55</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="21">
         <v>30</v>
       </c>
@@ -1134,7 +1131,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1152,12 +1149,12 @@
       <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>80</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="22"/>
     </row>
   </sheetData>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D508320-E9B7-43D4-8D68-A4FF8DC75C4B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -89,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,21 +405,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,16 +715,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -785,14 +785,14 @@
       <c r="C3" s="12">
         <v>40</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="40">
         <v>160</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="10"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -1024,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
@@ -1071,8 +1071,8 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -1112,16 +1112,16 @@
       <c r="B4" s="21">
         <v>18</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="7"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1133,10 +1133,10 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="42">

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDE494-F845-4068-9B9F-90F3367BC374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930AF0B1-A01C-4F2E-B105-0006EFDE3248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -443,6 +440,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,7 +734,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,10 +773,10 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
@@ -778,8 +784,8 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
@@ -793,14 +799,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>160</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -808,19 +814,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>6</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -855,19 +861,19 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>19</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -880,40 +886,40 @@
       <c r="D7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>28</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1036,7 +1042,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,18 +1077,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>10</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
@@ -1095,43 +1101,43 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>30</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>25</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>55</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="21">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="20">
         <v>30</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="21"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>18</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1143,19 +1149,19 @@
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="42">
         <v>80</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="22"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930AF0B1-A01C-4F2E-B105-0006EFDE3248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF567D9-5841-4B43-90D2-01D02090C387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Клиент</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Настя мехед</t>
-  </si>
-  <si>
-    <t>этот хуй под вопросом</t>
   </si>
   <si>
     <t>@kkamizu</t>
@@ -323,15 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -351,6 +339,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -409,16 +410,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -433,6 +432,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,14 +450,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,14 +804,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>160</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -869,11 +874,11 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -883,14 +888,14 @@
       <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="41">
+        <v>150</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -905,8 +910,8 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -918,8 +923,8 @@
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1030,8 +1035,9 @@
       <c r="I21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1041,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,11 +1113,11 @@
       <c r="D3" s="20">
         <v>25</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="40">
         <v>55</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="20">
         <v>30</v>
       </c>
@@ -1123,15 +1129,15 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="19">
         <v>18</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="23"/>
@@ -1149,18 +1155,18 @@
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="37">
         <v>80</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="21"/>
     </row>
   </sheetData>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF567D9-5841-4B43-90D2-01D02090C387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D83EEB-D8AA-4AD2-A62E-77210594E5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="300" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -354,11 +360,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -375,23 +396,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -403,12 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,18 +430,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,16 +462,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +757,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,20 +795,20 @@
       </c>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <v>11</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
@@ -804,34 +822,34 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>160</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -842,43 +860,43 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="29" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>19</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -888,43 +906,43 @@
       <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="34">
         <v>150</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="43"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>28</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1002,7 +1020,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1048,7 +1066,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,18 +1101,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <v>10</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
@@ -1107,43 +1125,43 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="23">
         <v>30</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="17">
         <v>25</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>55</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="20">
+      <c r="F3" s="34"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="17">
         <v>30</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="18"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>18</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1155,19 +1173,19 @@
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>80</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF567D9-5841-4B43-90D2-01D02090C387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D680EB-A067-4EFC-9DC8-7DC0E1F61CBA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -406,9 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,6 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,16 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,14 +801,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>160</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -873,12 +870,12 @@
         <v>19</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -888,14 +885,14 @@
       <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="36">
         <v>150</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="43"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -910,8 +907,8 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -923,8 +920,8 @@
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1047,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,16 +1104,16 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>30</v>
       </c>
       <c r="D3" s="20">
         <v>25</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="41">
         <v>55</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="42"/>
       <c r="H3" s="20">
         <v>30</v>
@@ -1134,10 +1131,10 @@
       <c r="B4" s="19">
         <v>18</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="23"/>
@@ -1155,18 +1152,18 @@
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>80</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="21"/>
     </row>
   </sheetData>

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D680EB-A067-4EFC-9DC8-7DC0E1F61CBA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC760CE-4F5A-4AB4-92EE-BEFC94872A7A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="20">
   <si>
     <t>Клиент</t>
   </si>
@@ -382,9 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +420,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,9 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,7 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,10 +775,10 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>11</v>
       </c>
       <c r="C2" s="14"/>
@@ -787,7 +787,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
@@ -816,19 +816,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>6</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="9"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -863,10 +863,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>19</v>
       </c>
       <c r="C6" s="14"/>
@@ -875,7 +875,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="43"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -885,43 +885,43 @@
       <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="38">
         <v>150</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>28</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EFFA92-1337-4DE5-8403-F4779CFEF060}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,18 +1080,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>10</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
@@ -1104,43 +1104,43 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>30</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>25</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="40">
         <v>55</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="20">
+      <c r="G3" s="41"/>
+      <c r="H3" s="19">
         <v>30</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="20"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>18</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1152,19 +1152,19 @@
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>80</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D83EEB-D8AA-4AD2-A62E-77210594E5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C2D40-898A-4F71-B668-6B21968D3174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="300" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заочка" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,7 +409,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,17 +438,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +461,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,7 +753,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +792,7 @@
       <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="16">
@@ -808,7 +804,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="28"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="9"/>
       <c r="N2" s="3"/>
       <c r="O2" t="s">
@@ -822,14 +818,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="34">
         <v>160</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -837,7 +833,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="16">
@@ -846,8 +842,8 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
       <c r="J4" s="9"/>
@@ -860,31 +856,31 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="16">
@@ -896,7 +892,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -906,43 +902,43 @@
       <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="37">
         <v>150</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>28</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -1066,7 +1062,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,18 +1097,18 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="16">
         <v>10</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="N2" s="3"/>
@@ -1125,43 +1121,43 @@
       <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>30</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="22">
         <v>25</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="36">
         <v>55</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="17">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="22">
         <v>30</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="17"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="16">
         <v>18</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="6"/>
       <c r="N4" s="4"/>
       <c r="O4" t="s">
@@ -1173,10 +1169,10 @@
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="36">
@@ -1185,7 +1181,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/бухучёт.xlsx
+++ b/бухучёт.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C2D40-898A-4F71-B668-6B21968D3174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9C4184-B1E9-4D56-A639-AA1004D8F9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,29 +446,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +753,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,14 +818,14 @@
       <c r="C3" s="11">
         <v>40</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="40">
         <v>160</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="9"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s">
@@ -843,7 +843,7 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15"/>
       <c r="J4" s="9"/>
@@ -902,14 +902,14 @@
       <c r="C7" s="11">
         <v>40</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>150</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="39"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -920,7 +920,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="29"/>
-      <c r="D8" s="41"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,11 +1127,11 @@
       <c r="D3" s="22">
         <v>25</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="38">
         <v>55</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="22">
         <v>30</v>
       </c>
@@ -1175,12 +1175,12 @@
       <c r="D5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="38">
         <v>80</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="17"/>
     </row>
   </sheetData>
